--- a/data/trans_orig/barthel-Edad-trans_orig.xlsx
+++ b/data/trans_orig/barthel-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1206,7 +1206,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>97,42</t>
+          <t>98,77</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>95,08</t>
+          <t>97,31</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>96,19</t>
+          <t>98,4</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>96,28</t>
+          <t>98,24</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,55</t>
+          <t>97,86</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,4</t>
+          <t>96,64</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,61</t>
+          <t>97,56</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>93,01</t>
+          <t>98,36</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>96,35</t>
+          <t>98,28</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>92,98</t>
+          <t>96,95</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>94,72</t>
+          <t>97,96</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,34</t>
+          <t>98,31</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>96,54; 98,07</t>
+          <t>97,67; 99,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>93,51; 96,29</t>
+          <t>95,77; 98,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>95,15; 96,98</t>
+          <t>97,4; 99,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>95,55; 96,85</t>
+          <t>97,55; 98,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>94,3; 96,41</t>
+          <t>96,63; 98,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>89,94; 92,75</t>
+          <t>95,23; 97,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>92,25; 94,66</t>
+          <t>96,61; 98,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>91,82; 95,1</t>
+          <t>97,33; 99,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>95,63; 96,99</t>
+          <t>97,48; 98,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>92,0; 93,87</t>
+          <t>96,01; 97,7</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>93,97; 95,5</t>
+          <t>97,25; 98,42</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>93,67; 95,48</t>
+          <t>97,63; 99,1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>97,42</t>
+          <t>95,54</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>95,08</t>
+          <t>92,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>96,19</t>
+          <t>93,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>96,28</t>
+          <t>93,77</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>95,55</t>
+          <t>93,18</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>91,4</t>
+          <t>86,64</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>93,61</t>
+          <t>89,87</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>93,01</t>
+          <t>87,39</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>96,35</t>
+          <t>94,09</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>92,98</t>
+          <t>88,86</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>94,72</t>
+          <t>91,22</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>94,34</t>
+          <t>89,94</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>93,52; 96,79</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>89,57; 94,42</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>91,22; 94,84</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>92,39; 95,0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>91,07; 94,74</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>83,91; 88,63</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>87,43; 91,72</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>85,82; 88,74</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>92,58; 95,2</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>86,89; 90,45</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>89,74; 92,66</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>88,93; 90,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>97,42</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>95,08</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>96,19</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>96,31</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>95,55</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>91,4</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>93,61</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>93,85</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>96,35</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>92,98</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>94,72</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>94,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>96,54; 98,07</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>93,51; 96,29</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>95,15; 96,98</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>95,55; 96,85</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>95,59; 96,87</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>94,3; 96,41</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>89,94; 92,75</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>92,25; 94,66</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>91,82; 95,1</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>92,07; 96,58</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>95,63; 96,99</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>92,0; 93,87</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>93,97; 95,5</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>93,67; 95,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>93,92; 96,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/barthel-Edad-trans_orig.xlsx
+++ b/data/trans_orig/barthel-Edad-trans_orig.xlsx
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>97,67; 99,37</t>
+          <t>97,58; 99,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>95,77; 98,4</t>
+          <t>95,74; 98,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>97,4; 99,02</t>
+          <t>97,44; 99,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>97,55; 98,72</t>
+          <t>97,48; 98,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>96,63; 98,59</t>
+          <t>96,78; 98,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,23; 97,66</t>
+          <t>95,35; 97,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>96,61; 98,25</t>
+          <t>96,49; 98,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>97,33; 99,29</t>
+          <t>97,32; 99,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>97,48; 98,81</t>
+          <t>97,52; 98,82</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>96,01; 97,7</t>
+          <t>95,99; 97,81</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>97,25; 98,42</t>
+          <t>97,32; 98,45</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>97,63; 99,1</t>
+          <t>97,72; 99,16</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>93,52; 96,79</t>
+          <t>93,53; 96,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>89,57; 94,42</t>
+          <t>89,13; 94,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>91,22; 94,84</t>
+          <t>91,39; 95,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>92,39; 95,0</t>
+          <t>92,34; 94,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>91,07; 94,74</t>
+          <t>91,03; 94,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>83,91; 88,63</t>
+          <t>83,95; 88,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>87,43; 91,72</t>
+          <t>87,28; 91,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>85,82; 88,74</t>
+          <t>85,88; 88,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>92,58; 95,2</t>
+          <t>92,57; 95,28</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>86,89; 90,45</t>
+          <t>86,84; 90,36</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>89,74; 92,66</t>
+          <t>89,74; 92,6</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>88,93; 90,84</t>
+          <t>88,83; 90,94</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>96,54; 98,07</t>
+          <t>96,28; 98,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>93,51; 96,29</t>
+          <t>93,51; 96,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>95,15; 96,98</t>
+          <t>95,12; 97,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>95,59; 96,87</t>
+          <t>95,61; 96,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>94,3; 96,41</t>
+          <t>94,41; 96,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>89,94; 92,75</t>
+          <t>89,78; 92,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>92,25; 94,66</t>
+          <t>92,27; 94,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>92,07; 96,58</t>
+          <t>92,05; 96,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>95,63; 96,99</t>
+          <t>95,6; 96,98</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>92,0; 93,87</t>
+          <t>91,91; 93,85</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>93,97; 95,5</t>
+          <t>93,8; 95,39</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>93,92; 96,46</t>
+          <t>93,93; 96,49</t>
         </is>
       </c>
     </row>
